--- a/Docs/Навантаження.xlsx
+++ b/Docs/Навантаження.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspi\source\repos\CurriculumHandler\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C618088-437F-4759-8F75-82BEAA942C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB3A977-D93E-47FA-A9FB-6A2A3EE3AEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="734" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Години" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,13 @@
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">Години!$A$6:$AN$6</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2">Осінь!$A$6:$AM$6</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2">Осінь!$A$6:$AI$6</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_3">Весна!$A$2:$AM$2</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_4">Літо!$A$2:$AO$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Весна!$A$1:$AN$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Години!$A$1:$AO$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Літо!$A$1:$AN$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Осінь!$A$1:$AL$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Осінь!$A$1:$AH$54</definedName>
     <definedName name="асистент">1020</definedName>
     <definedName name="доцент">940</definedName>
     <definedName name="Зав.каф.">750</definedName>
@@ -43,7 +43,7 @@
     <definedName name="професор">850</definedName>
     <definedName name="ст.викладач">960</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="421">
   <si>
     <t>ОБСЯГ НАВЧАЛЬНОЇ РОБОТИ НА</t>
   </si>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3149,7 +3149,7 @@
       <xdr:rowOff>241055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>1263</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>509270</xdr:rowOff>
@@ -3900,7 +3900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист151111">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5957,7 +5957,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Попередження" error="Такої назви у списку немає. Ви впевнені в правильності введеної назви?" prompt="Виберіть із списка потрібну назву. Якщо елементи у списку, що відкривається, нерозбірливі, то збільшить масштаб зображення. Якщо потрібної Вам назви в списку немає, або вона неточна, введіть назву  в цю клітинку." sqref="E3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Попередження" error="Такої назви у списку немає. Ви впевнені в правильності введеної назви?" prompt="Виберіть із списка потрібну назву. Якщо елементи у списку, що відкривається, нерозбірливі, то збільшить масштаб зображення. Якщо потрібної Вам назви в списку немає, або вона неточна, введіть назву  в цю клітинку." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Назва_кафедри</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5974,18 +5974,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист151112"/>
-  <dimension ref="A1:IV182"/>
+  <dimension ref="A1:IR182"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E4" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
@@ -6003,29 +6003,26 @@
     <col min="18" max="18" width="4.88671875" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" customWidth="1"/>
-    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" customWidth="1"/>
-    <col min="23" max="23" width="7.5546875" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" customWidth="1"/>
-    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.88671875" customWidth="1"/>
-    <col min="27" max="27" width="8" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" customWidth="1"/>
-    <col min="30" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="7.109375" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" customWidth="1"/>
-    <col min="33" max="34" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="3.33203125" customWidth="1"/>
-    <col min="36" max="36" width="5" customWidth="1"/>
-    <col min="37" max="37" width="6.5546875" customWidth="1"/>
-    <col min="38" max="38" width="9.33203125" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="4.88671875" customWidth="1"/>
-    <col min="41" max="41" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="7.5546875" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" customWidth="1"/>
+    <col min="27" max="27" width="7.44140625" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="29" width="7.109375" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" customWidth="1"/>
+    <col min="31" max="31" width="3.33203125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.5546875" customWidth="1"/>
+    <col min="34" max="34" width="9.33203125" customWidth="1"/>
+    <col min="35" max="35" width="14.44140625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="4.88671875" customWidth="1"/>
+    <col min="37" max="37" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:252" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
@@ -6053,26 +6050,26 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="7">
+      <c r="X1" s="7">
         <v>2021</v>
       </c>
-      <c r="AA1" s="7">
+      <c r="Y1" s="7">
         <v>2022</v>
       </c>
-      <c r="AB1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="255"/>
+      <c r="AB1" s="255"/>
       <c r="AC1" s="255"/>
       <c r="AD1" s="255"/>
       <c r="AE1" s="255"/>
       <c r="AF1" s="255"/>
       <c r="AG1" s="255"/>
       <c r="AH1" s="255"/>
-      <c r="AI1" s="255"/>
-      <c r="AJ1" s="255"/>
-      <c r="AK1" s="255"/>
-      <c r="AL1" s="255"/>
-      <c r="AM1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
       <c r="IF1" s="8"/>
       <c r="IG1" s="8"/>
       <c r="IH1" s="8"/>
@@ -6086,12 +6083,8 @@
       <c r="IP1" s="8"/>
       <c r="IQ1" s="8"/>
       <c r="IR1" s="8"/>
-      <c r="IS1" s="8"/>
-      <c r="IT1" s="8"/>
-      <c r="IU1" s="8"/>
-      <c r="IV1" s="8"/>
-    </row>
-    <row r="2" spans="1:256" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:252" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6117,22 +6110,22 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
+      <c r="X2" s="16"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="255"/>
+      <c r="AB2" s="255"/>
       <c r="AC2" s="255"/>
       <c r="AD2" s="255"/>
       <c r="AE2" s="255"/>
       <c r="AF2" s="255"/>
       <c r="AG2" s="255"/>
       <c r="AH2" s="255"/>
-      <c r="AI2" s="255"/>
-      <c r="AJ2" s="255"/>
-      <c r="AK2" s="255"/>
-      <c r="AL2" s="255"/>
-      <c r="AM2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="IB2" s="8"/>
+      <c r="IC2" s="8"/>
+      <c r="ID2" s="8"/>
+      <c r="IE2" s="8"/>
       <c r="IF2" s="8"/>
       <c r="IG2" s="8"/>
       <c r="IH2" s="8"/>
@@ -6146,12 +6139,8 @@
       <c r="IP2" s="8"/>
       <c r="IQ2" s="8"/>
       <c r="IR2" s="8"/>
-      <c r="IS2" s="8"/>
-      <c r="IT2" s="8"/>
-      <c r="IU2" s="8"/>
-      <c r="IV2" s="8"/>
-    </row>
-    <row r="3" spans="1:256" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:252" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="256" t="s">
         <v>72</v>
       </c>
@@ -6182,19 +6171,19 @@
       <c r="X3" s="257"/>
       <c r="Y3" s="257"/>
       <c r="Z3" s="257"/>
-      <c r="AA3" s="257"/>
-      <c r="AB3" s="257"/>
+      <c r="AA3" s="255"/>
+      <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
       <c r="AD3" s="255"/>
       <c r="AE3" s="255"/>
       <c r="AF3" s="255"/>
       <c r="AG3" s="255"/>
       <c r="AH3" s="255"/>
-      <c r="AI3" s="255"/>
-      <c r="AJ3" s="255"/>
-      <c r="AK3" s="255"/>
-      <c r="AL3" s="255"/>
-      <c r="AM3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="IB3" s="8"/>
+      <c r="IC3" s="8"/>
+      <c r="ID3" s="8"/>
+      <c r="IE3" s="8"/>
       <c r="IF3" s="8"/>
       <c r="IG3" s="8"/>
       <c r="IH3" s="8"/>
@@ -6208,12 +6197,8 @@
       <c r="IP3" s="8"/>
       <c r="IQ3" s="8"/>
       <c r="IR3" s="8"/>
-      <c r="IS3" s="8"/>
-      <c r="IT3" s="8"/>
-      <c r="IU3" s="8"/>
-      <c r="IV3" s="8"/>
-    </row>
-    <row r="4" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:252" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
       <c r="B4" s="256"/>
       <c r="C4" s="256"/>
@@ -6237,22 +6222,22 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="16"/>
+      <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="IB4" s="8"/>
+      <c r="IC4" s="8"/>
+      <c r="ID4" s="8"/>
+      <c r="IE4" s="8"/>
       <c r="IF4" s="8"/>
       <c r="IG4" s="8"/>
       <c r="IH4" s="8"/>
@@ -6266,17 +6251,13 @@
       <c r="IP4" s="8"/>
       <c r="IQ4" s="8"/>
       <c r="IR4" s="8"/>
-      <c r="IS4" s="8"/>
-      <c r="IT4" s="8"/>
-      <c r="IU4" s="8"/>
-      <c r="IV4" s="8"/>
-    </row>
-    <row r="5" spans="1:256" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:252" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:252" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
@@ -6337,63 +6318,55 @@
       <c r="T6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="64" t="s">
+      <c r="U6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="V6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="W6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="29" t="s">
+      <c r="X6" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="Y6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="AA6" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD6" s="27" t="s">
         <v>32</v>
       </c>
+      <c r="AC6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="AE6" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AF6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AK6" s="35" t="s">
+      <c r="AG6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AL6" s="36" t="s">
+      <c r="AH6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AM6" s="37" t="s">
+      <c r="AI6" s="37" t="s">
         <v>43</v>
       </c>
+      <c r="IB6" s="8"/>
+      <c r="IC6" s="8"/>
+      <c r="ID6" s="8"/>
+      <c r="IE6" s="8"/>
       <c r="IF6" s="8"/>
       <c r="IG6" s="8"/>
       <c r="IH6" s="8"/>
@@ -6407,12 +6380,8 @@
       <c r="IP6" s="8"/>
       <c r="IQ6" s="8"/>
       <c r="IR6" s="8"/>
-      <c r="IS6" s="8"/>
-      <c r="IT6" s="8"/>
-      <c r="IU6" s="8"/>
-      <c r="IV6" s="8"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A7" s="65">
         <v>1</v>
       </c>
@@ -6464,32 +6433,28 @@
         <v>2</v>
       </c>
       <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70">
+      <c r="V7" s="70">
         <v>18</v>
       </c>
+      <c r="W7" s="70"/>
       <c r="X7" s="70"/>
       <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
+      <c r="Z7" s="70">
+        <v>2</v>
+      </c>
       <c r="AA7" s="70"/>
-      <c r="AB7" s="70">
-        <v>2</v>
-      </c>
+      <c r="AB7" s="70"/>
       <c r="AC7" s="70"/>
       <c r="AD7" s="70"/>
       <c r="AE7" s="70"/>
       <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="70">
-        <f t="shared" ref="AL7:AL34" si="0">SUM(S7:AK7)</f>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="70">
+        <f t="shared" ref="AH7:AH34" si="0">SUM(S7:AG7)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="65">
         <v>2</v>
       </c>
@@ -6539,32 +6504,28 @@
       </c>
       <c r="T8" s="70"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70">
+      <c r="V8" s="70">
         <v>27</v>
       </c>
+      <c r="W8" s="70"/>
       <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
+      <c r="Y8" s="70">
+        <v>2</v>
+      </c>
       <c r="Z8" s="70"/>
-      <c r="AA8" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA8" s="70"/>
       <c r="AB8" s="70"/>
       <c r="AC8" s="70"/>
       <c r="AD8" s="70"/>
       <c r="AE8" s="70"/>
       <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="70">
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="70">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:252" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A9" s="65">
         <v>3</v>
       </c>
@@ -6618,34 +6579,30 @@
         <v>3</v>
       </c>
       <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70">
+      <c r="V9" s="70">
         <v>108</v>
       </c>
-      <c r="X9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70">
+        <v>70</v>
+      </c>
       <c r="Y9" s="70"/>
       <c r="Z9" s="70">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AA9" s="70"/>
-      <c r="AB9" s="70">
-        <v>10</v>
-      </c>
+      <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
       <c r="AD9" s="70"/>
       <c r="AE9" s="70"/>
       <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="70">
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="70">
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A10" s="65">
         <v>4</v>
       </c>
@@ -6695,22 +6652,18 @@
       <c r="AA10" s="70"/>
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
+      <c r="AD10" s="70">
+        <v>90</v>
+      </c>
       <c r="AE10" s="70"/>
-      <c r="AF10" s="70">
-        <v>90</v>
-      </c>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="70"/>
-      <c r="AJ10" s="70"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="70">
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="70">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A11" s="65">
         <v>5</v>
       </c>
@@ -6762,34 +6715,30 @@
       </c>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70">
+      <c r="V11" s="70">
         <v>18</v>
       </c>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70">
+      <c r="W11" s="70"/>
+      <c r="X11" s="70">
         <v>24</v>
       </c>
-      <c r="AA11" s="70">
+      <c r="Y11" s="70">
         <v>2</v>
       </c>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
       <c r="AD11" s="70"/>
       <c r="AE11" s="70"/>
       <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="70"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="70">
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="70">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A12" s="65">
         <v>6</v>
       </c>
@@ -6839,32 +6788,28 @@
       </c>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70">
+      <c r="V12" s="70">
         <v>27</v>
       </c>
+      <c r="W12" s="70"/>
       <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
+      <c r="Y12" s="70">
+        <v>2</v>
+      </c>
       <c r="Z12" s="70"/>
-      <c r="AA12" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
       <c r="AD12" s="70"/>
       <c r="AE12" s="70"/>
       <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="70"/>
-      <c r="AJ12" s="70"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="70">
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="70">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A13" s="65">
         <v>7</v>
       </c>
@@ -6914,32 +6859,28 @@
       </c>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70">
+      <c r="V13" s="70">
         <v>18</v>
       </c>
+      <c r="W13" s="70"/>
       <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="Y13" s="70">
+        <v>2</v>
+      </c>
       <c r="Z13" s="70"/>
-      <c r="AA13" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA13" s="70"/>
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
       <c r="AD13" s="70"/>
       <c r="AE13" s="70"/>
       <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="70">
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="70">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A14" s="65">
         <v>8</v>
       </c>
@@ -6993,30 +6934,26 @@
       <c r="U14" s="70"/>
       <c r="V14" s="70"/>
       <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
+      <c r="X14" s="70">
+        <v>2</v>
+      </c>
       <c r="Y14" s="70"/>
       <c r="Z14" s="70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="70"/>
-      <c r="AB14" s="70">
-        <v>1</v>
-      </c>
+      <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
       <c r="AD14" s="70"/>
       <c r="AE14" s="70"/>
       <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="70">
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="70">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A15" s="65">
         <v>9</v>
       </c>
@@ -7067,27 +7004,23 @@
       <c r="V15" s="70"/>
       <c r="W15" s="70"/>
       <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
+      <c r="Y15" s="70">
+        <v>1</v>
+      </c>
       <c r="Z15" s="70"/>
-      <c r="AA15" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="70"/>
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
       <c r="AD15" s="70"/>
       <c r="AE15" s="70"/>
       <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="70">
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:252" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A16" s="65">
         <v>10</v>
       </c>
@@ -7139,32 +7072,28 @@
         <v>1</v>
       </c>
       <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70">
+      <c r="V16" s="70">
         <v>18</v>
       </c>
+      <c r="W16" s="70"/>
       <c r="X16" s="70"/>
       <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
+      <c r="Z16" s="70">
+        <v>2</v>
+      </c>
       <c r="AA16" s="70"/>
-      <c r="AB16" s="70">
-        <v>2</v>
-      </c>
+      <c r="AB16" s="70"/>
       <c r="AC16" s="70"/>
       <c r="AD16" s="70"/>
       <c r="AE16" s="70"/>
       <c r="AF16" s="70"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="70">
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="70">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="65">
         <v>11</v>
       </c>
@@ -7216,32 +7145,28 @@
         <v>2</v>
       </c>
       <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70">
+      <c r="V17" s="70">
         <v>36</v>
       </c>
+      <c r="W17" s="70"/>
       <c r="X17" s="70"/>
       <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
+      <c r="Z17" s="70">
+        <v>3</v>
+      </c>
       <c r="AA17" s="70"/>
-      <c r="AB17" s="70">
-        <v>3</v>
-      </c>
+      <c r="AB17" s="70"/>
       <c r="AC17" s="70"/>
       <c r="AD17" s="70"/>
       <c r="AE17" s="70"/>
       <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="70">
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="70">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="65">
         <v>12</v>
       </c>
@@ -7291,32 +7216,28 @@
       </c>
       <c r="T18" s="70"/>
       <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70">
+      <c r="V18" s="70">
         <v>27</v>
       </c>
+      <c r="W18" s="70"/>
       <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="Y18" s="70">
+        <v>2</v>
+      </c>
       <c r="Z18" s="70"/>
-      <c r="AA18" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA18" s="70"/>
       <c r="AB18" s="70"/>
       <c r="AC18" s="70"/>
       <c r="AD18" s="70"/>
       <c r="AE18" s="70"/>
       <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="70">
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="70">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A19" s="65">
         <v>13</v>
       </c>
@@ -7368,32 +7289,28 @@
         <v>2</v>
       </c>
       <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70">
+      <c r="V19" s="70">
         <v>36</v>
       </c>
+      <c r="W19" s="70"/>
       <c r="X19" s="70"/>
       <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
+      <c r="Z19" s="70">
+        <v>3</v>
+      </c>
       <c r="AA19" s="70"/>
-      <c r="AB19" s="70">
-        <v>3</v>
-      </c>
+      <c r="AB19" s="70"/>
       <c r="AC19" s="70"/>
       <c r="AD19" s="70"/>
       <c r="AE19" s="70"/>
       <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="70">
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="70">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A20" s="65">
         <v>14</v>
       </c>
@@ -7445,32 +7362,28 @@
         <v>2</v>
       </c>
       <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58">
+      <c r="V20" s="58">
         <v>36</v>
       </c>
+      <c r="W20" s="58"/>
       <c r="X20" s="58"/>
       <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
+      <c r="Z20" s="58">
+        <v>3</v>
+      </c>
       <c r="AA20" s="58"/>
-      <c r="AB20" s="58">
-        <v>3</v>
-      </c>
+      <c r="AB20" s="58"/>
       <c r="AC20" s="58"/>
       <c r="AD20" s="58"/>
       <c r="AE20" s="58"/>
       <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="70">
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="70">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A21" s="65">
         <v>14</v>
       </c>
@@ -7513,31 +7426,27 @@
       <c r="R21" s="77"/>
       <c r="S21" s="78"/>
       <c r="T21" s="78"/>
-      <c r="U21" s="79"/>
+      <c r="U21" s="78"/>
       <c r="V21" s="78"/>
       <c r="W21" s="78"/>
       <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78">
+      <c r="Y21" s="78">
         <v>1</v>
       </c>
-      <c r="AB21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
       <c r="AC21" s="78"/>
       <c r="AD21" s="78"/>
       <c r="AE21" s="78"/>
       <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="80"/>
-      <c r="AL21" s="70">
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A22" s="65">
         <v>15</v>
       </c>
@@ -7589,32 +7498,28 @@
         <v>2</v>
       </c>
       <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58">
+      <c r="V22" s="58">
         <v>36</v>
       </c>
+      <c r="W22" s="58"/>
       <c r="X22" s="58"/>
       <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
+      <c r="Z22" s="58">
+        <v>3</v>
+      </c>
       <c r="AA22" s="58"/>
-      <c r="AB22" s="58">
-        <v>3</v>
-      </c>
+      <c r="AB22" s="58"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="58"/>
       <c r="AE22" s="58"/>
       <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="70">
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="70">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="65">
         <v>16</v>
       </c>
@@ -7664,32 +7569,28 @@
       </c>
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70">
+      <c r="V23" s="70">
         <v>27</v>
       </c>
+      <c r="W23" s="70"/>
       <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
+      <c r="Y23" s="70">
+        <v>2</v>
+      </c>
       <c r="Z23" s="70"/>
-      <c r="AA23" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA23" s="70"/>
       <c r="AB23" s="70"/>
       <c r="AC23" s="70"/>
       <c r="AD23" s="70"/>
       <c r="AE23" s="70"/>
       <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="70">
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="70">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A24" s="65">
         <v>17</v>
       </c>
@@ -7741,30 +7642,26 @@
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
       <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70">
+      <c r="X24" s="70">
         <v>16</v>
       </c>
-      <c r="AA24" s="70">
+      <c r="Y24" s="70">
         <v>1</v>
       </c>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
       <c r="AD24" s="70"/>
       <c r="AE24" s="70"/>
       <c r="AF24" s="70"/>
-      <c r="AG24" s="70"/>
-      <c r="AH24" s="70"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="70">
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="70">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A25" s="65">
         <v>18</v>
       </c>
@@ -7818,34 +7715,30 @@
         <v>1</v>
       </c>
       <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70">
+      <c r="V25" s="70">
         <v>27</v>
       </c>
+      <c r="W25" s="70"/>
       <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70">
+      <c r="Y25" s="70">
         <v>2</v>
       </c>
-      <c r="AB25" s="70">
+      <c r="Z25" s="70">
         <v>1</v>
       </c>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
       <c r="AD25" s="70"/>
       <c r="AE25" s="70"/>
       <c r="AF25" s="70"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="70"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="70">
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="70">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="65">
         <v>19</v>
       </c>
@@ -7895,32 +7788,28 @@
       </c>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70">
+      <c r="V26" s="70">
         <v>18</v>
       </c>
+      <c r="W26" s="70"/>
       <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
+      <c r="Y26" s="70">
+        <v>2</v>
+      </c>
       <c r="Z26" s="70"/>
-      <c r="AA26" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA26" s="70"/>
       <c r="AB26" s="70"/>
       <c r="AC26" s="70"/>
       <c r="AD26" s="70"/>
       <c r="AE26" s="70"/>
       <c r="AF26" s="70"/>
-      <c r="AG26" s="70"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="71"/>
-      <c r="AL26" s="70">
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="70">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="65">
         <v>20</v>
       </c>
@@ -7970,32 +7859,28 @@
       </c>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70">
+      <c r="V27" s="70">
         <v>18</v>
       </c>
+      <c r="W27" s="70"/>
       <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
+      <c r="Y27" s="70">
+        <v>2</v>
+      </c>
       <c r="Z27" s="70"/>
-      <c r="AA27" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA27" s="70"/>
       <c r="AB27" s="70"/>
       <c r="AC27" s="70"/>
       <c r="AD27" s="70"/>
       <c r="AE27" s="70"/>
       <c r="AF27" s="70"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="70"/>
-      <c r="AK27" s="71"/>
-      <c r="AL27" s="70">
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="70">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A28" s="65">
         <v>21</v>
       </c>
@@ -8049,34 +7934,30 @@
         <v>1</v>
       </c>
       <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70">
+      <c r="V28" s="70">
         <v>36</v>
       </c>
-      <c r="X28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70">
+        <v>26</v>
+      </c>
       <c r="Y28" s="70"/>
       <c r="Z28" s="70">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AA28" s="70"/>
-      <c r="AB28" s="70">
-        <v>2</v>
-      </c>
+      <c r="AB28" s="70"/>
       <c r="AC28" s="70"/>
       <c r="AD28" s="70"/>
       <c r="AE28" s="70"/>
       <c r="AF28" s="70"/>
-      <c r="AG28" s="70"/>
-      <c r="AH28" s="70"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="70"/>
-      <c r="AK28" s="71"/>
-      <c r="AL28" s="70">
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="70">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A29" s="65">
         <v>22</v>
       </c>
@@ -8130,34 +8011,30 @@
         <v>1</v>
       </c>
       <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70">
+      <c r="V29" s="70">
         <v>36</v>
       </c>
-      <c r="X29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70">
+        <v>26</v>
+      </c>
       <c r="Y29" s="70"/>
       <c r="Z29" s="70">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="70"/>
-      <c r="AB29" s="70">
-        <v>2</v>
-      </c>
+      <c r="AB29" s="70"/>
       <c r="AC29" s="70"/>
       <c r="AD29" s="70"/>
       <c r="AE29" s="70"/>
       <c r="AF29" s="70"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="70"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="70">
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="70">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A30" s="65">
         <v>23</v>
       </c>
@@ -8209,32 +8086,28 @@
         <v>1</v>
       </c>
       <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58">
+      <c r="V30" s="58">
         <v>36</v>
       </c>
+      <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
+      <c r="Z30" s="58">
+        <v>2</v>
+      </c>
       <c r="AA30" s="58"/>
-      <c r="AB30" s="58">
-        <v>2</v>
-      </c>
+      <c r="AB30" s="58"/>
       <c r="AC30" s="58"/>
       <c r="AD30" s="58"/>
       <c r="AE30" s="58"/>
       <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="58"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="59"/>
-      <c r="AL30" s="70">
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="70">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A31" s="65">
         <v>24</v>
       </c>
@@ -8283,33 +8156,29 @@
         <v>36</v>
       </c>
       <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70">
+      <c r="U31" s="70">
         <v>36</v>
       </c>
+      <c r="V31" s="70"/>
       <c r="W31" s="70"/>
       <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
+      <c r="Y31" s="70">
+        <v>2</v>
+      </c>
       <c r="Z31" s="70"/>
-      <c r="AA31" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA31" s="70"/>
       <c r="AB31" s="70"/>
       <c r="AC31" s="70"/>
       <c r="AD31" s="70"/>
       <c r="AE31" s="70"/>
       <c r="AF31" s="70"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="70"/>
-      <c r="AJ31" s="70"/>
-      <c r="AK31" s="71"/>
-      <c r="AL31" s="70">
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="70">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="65">
         <v>25</v>
       </c>
@@ -8356,27 +8225,23 @@
       <c r="V32" s="70"/>
       <c r="W32" s="70"/>
       <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
+      <c r="Y32" s="70">
+        <v>1</v>
+      </c>
       <c r="Z32" s="70"/>
-      <c r="AA32" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA32" s="70"/>
       <c r="AB32" s="70"/>
       <c r="AC32" s="70"/>
       <c r="AD32" s="70"/>
       <c r="AE32" s="70"/>
       <c r="AF32" s="70"/>
-      <c r="AG32" s="70"/>
-      <c r="AH32" s="70"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="70"/>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="70">
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="65">
         <v>26</v>
       </c>
@@ -8422,20 +8287,16 @@
       <c r="AC33" s="58"/>
       <c r="AD33" s="58"/>
       <c r="AE33" s="58"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58">
+      <c r="AF33" s="58">
         <v>28</v>
       </c>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="70">
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="70">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A34" s="65">
         <v>27</v>
       </c>
@@ -8476,29 +8337,25 @@
       <c r="X34" s="58"/>
       <c r="Y34" s="58"/>
       <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58">
+      <c r="AA34" s="58">
         <v>33</v>
       </c>
+      <c r="AB34" s="58">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="58"/>
       <c r="AD34" s="58">
         <v>7</v>
       </c>
       <c r="AE34" s="58"/>
-      <c r="AF34" s="58">
-        <v>7</v>
-      </c>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="70">
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="70">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="91" customFormat="1" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" s="91" customFormat="1" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="68"/>
       <c r="B35" s="51"/>
       <c r="C35" s="83" t="s">
@@ -8520,7 +8377,7 @@
       <c r="Q35" s="85"/>
       <c r="R35" s="88"/>
       <c r="S35" s="89">
-        <f t="shared" ref="S35:AL35" si="1">SUM(S7:S34)</f>
+        <f t="shared" ref="S35:AH35" si="1">SUM(S7:S34)</f>
         <v>657</v>
       </c>
       <c r="T35" s="89">
@@ -8529,43 +8386,43 @@
       </c>
       <c r="U35" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V35" s="89">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>603</v>
       </c>
       <c r="W35" s="89">
         <f t="shared" si="1"/>
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="X35" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="Y35" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z35" s="89">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="AA35" s="89">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AB35" s="89">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AC35" s="89">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="89">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="AE35" s="89">
         <f t="shared" si="1"/>
@@ -8573,7 +8430,7 @@
       </c>
       <c r="AF35" s="89">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="AG35" s="89">
         <f t="shared" si="1"/>
@@ -8581,27 +8438,11 @@
       </c>
       <c r="AH35" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="89">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="AK35" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="89">
-        <f t="shared" si="1"/>
         <v>1702</v>
       </c>
-      <c r="AM35" s="90"/>
-    </row>
-    <row r="36" spans="1:39" s="91" customFormat="1" ht="124.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI35" s="90"/>
+    </row>
+    <row r="36" spans="1:35" s="91" customFormat="1" ht="124.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>4</v>
       </c>
@@ -8662,63 +8503,51 @@
       <c r="T36" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="U36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="V36" s="64" t="s">
+      <c r="U36" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="W36" s="29" t="s">
+      <c r="V36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="X36" s="34" t="s">
+      <c r="W36" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Y36" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z36" s="29" t="s">
+      <c r="X36" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="Y36" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z36" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="AA36" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AB36" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC36" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD36" s="27" t="s">
         <v>32</v>
       </c>
+      <c r="AC36" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD36" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="AE36" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AF36" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG36" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH36" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI36" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ36" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AK36" s="35" t="s">
+      <c r="AG36" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AL36" s="36" t="s">
+      <c r="AH36" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AM36" s="90"/>
-    </row>
-    <row r="37" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI36" s="90"/>
+    </row>
+    <row r="37" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>28</v>
       </c>
@@ -8772,35 +8601,31 @@
         <v>1</v>
       </c>
       <c r="U37" s="70"/>
-      <c r="V37" s="70"/>
+      <c r="V37" s="70">
+        <v>6</v>
+      </c>
       <c r="W37" s="70">
-        <v>6</v>
-      </c>
-      <c r="X37" s="70">
         <v>5</v>
       </c>
+      <c r="X37" s="70"/>
       <c r="Y37" s="70"/>
-      <c r="Z37" s="70"/>
+      <c r="Z37" s="70">
+        <v>5</v>
+      </c>
       <c r="AA37" s="70"/>
-      <c r="AB37" s="70">
-        <v>5</v>
-      </c>
+      <c r="AB37" s="70"/>
       <c r="AC37" s="70"/>
       <c r="AD37" s="70"/>
       <c r="AE37" s="70"/>
       <c r="AF37" s="70"/>
-      <c r="AG37" s="70"/>
-      <c r="AH37" s="70"/>
-      <c r="AI37" s="70"/>
-      <c r="AJ37" s="70"/>
-      <c r="AK37" s="71"/>
-      <c r="AL37" s="70">
-        <f t="shared" ref="AL37:AL52" si="2">SUM(S37:AK37)</f>
+      <c r="AG37" s="71"/>
+      <c r="AH37" s="70">
+        <f t="shared" ref="AH37:AH52" si="2">SUM(S37:AG37)</f>
         <v>23</v>
       </c>
-      <c r="AM37" s="92"/>
-    </row>
-    <row r="38" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI37" s="92"/>
+    </row>
+    <row r="38" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="50">
         <v>29</v>
       </c>
@@ -8850,32 +8675,28 @@
       <c r="S38" s="69"/>
       <c r="T38" s="70"/>
       <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-      <c r="X38" s="70">
+      <c r="W38" s="70">
         <v>2</v>
       </c>
-      <c r="Y38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70">
+        <v>1</v>
+      </c>
       <c r="Z38" s="70"/>
-      <c r="AA38" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA38" s="70"/>
       <c r="AB38" s="70"/>
       <c r="AC38" s="70"/>
       <c r="AD38" s="70"/>
       <c r="AE38" s="70"/>
       <c r="AF38" s="70"/>
-      <c r="AG38" s="70"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="70"/>
-      <c r="AJ38" s="70"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="70">
+      <c r="AG38" s="71"/>
+      <c r="AH38" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AM38" s="92"/>
-    </row>
-    <row r="39" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI38" s="92"/>
+    </row>
+    <row r="39" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <v>30</v>
       </c>
@@ -8926,32 +8747,28 @@
       <c r="T39" s="70"/>
       <c r="U39" s="70"/>
       <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70">
+      <c r="W39" s="70">
         <v>2</v>
       </c>
-      <c r="Y39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70">
+        <v>1</v>
+      </c>
       <c r="Z39" s="70"/>
-      <c r="AA39" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA39" s="70"/>
       <c r="AB39" s="70"/>
       <c r="AC39" s="70"/>
       <c r="AD39" s="70"/>
       <c r="AE39" s="70"/>
       <c r="AF39" s="70"/>
-      <c r="AG39" s="70"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="70"/>
-      <c r="AJ39" s="70"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="70">
+      <c r="AG39" s="71"/>
+      <c r="AH39" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AM39" s="92"/>
-    </row>
-    <row r="40" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI39" s="92"/>
+    </row>
+    <row r="40" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <v>31</v>
       </c>
@@ -9002,32 +8819,28 @@
       <c r="T40" s="70"/>
       <c r="U40" s="70"/>
       <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70">
+      <c r="W40" s="70">
         <v>2</v>
       </c>
-      <c r="Y40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70">
+        <v>1</v>
+      </c>
       <c r="Z40" s="70"/>
-      <c r="AA40" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA40" s="70"/>
       <c r="AB40" s="70"/>
       <c r="AC40" s="70"/>
       <c r="AD40" s="70"/>
       <c r="AE40" s="70"/>
       <c r="AF40" s="70"/>
-      <c r="AG40" s="70"/>
-      <c r="AH40" s="70"/>
-      <c r="AI40" s="70"/>
-      <c r="AJ40" s="70"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="70">
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AM40" s="92"/>
-    </row>
-    <row r="41" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI40" s="92"/>
+    </row>
+    <row r="41" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <v>32</v>
       </c>
@@ -9078,32 +8891,28 @@
       <c r="T41" s="70"/>
       <c r="U41" s="70"/>
       <c r="V41" s="70"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="70">
+      <c r="W41" s="70">
         <v>2</v>
       </c>
-      <c r="Y41" s="70"/>
+      <c r="X41" s="70"/>
+      <c r="Y41" s="70">
+        <v>1</v>
+      </c>
       <c r="Z41" s="70"/>
-      <c r="AA41" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA41" s="70"/>
       <c r="AB41" s="70"/>
       <c r="AC41" s="70"/>
       <c r="AD41" s="70"/>
       <c r="AE41" s="70"/>
       <c r="AF41" s="70"/>
-      <c r="AG41" s="70"/>
-      <c r="AH41" s="70"/>
-      <c r="AI41" s="70"/>
-      <c r="AJ41" s="70"/>
-      <c r="AK41" s="71"/>
-      <c r="AL41" s="70">
+      <c r="AG41" s="71"/>
+      <c r="AH41" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AM41" s="92"/>
-    </row>
-    <row r="42" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI41" s="92"/>
+    </row>
+    <row r="42" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>33</v>
       </c>
@@ -9155,35 +8964,31 @@
       </c>
       <c r="T42" s="70"/>
       <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
+      <c r="V42" s="70">
+        <v>6</v>
+      </c>
       <c r="W42" s="70">
-        <v>6</v>
-      </c>
-      <c r="X42" s="70">
         <v>5</v>
       </c>
-      <c r="Y42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70">
+        <v>2</v>
+      </c>
       <c r="Z42" s="70"/>
-      <c r="AA42" s="70">
-        <v>2</v>
-      </c>
+      <c r="AA42" s="70"/>
       <c r="AB42" s="70"/>
       <c r="AC42" s="70"/>
       <c r="AD42" s="70"/>
       <c r="AE42" s="70"/>
       <c r="AF42" s="70"/>
-      <c r="AG42" s="70"/>
-      <c r="AH42" s="70"/>
-      <c r="AI42" s="70"/>
-      <c r="AJ42" s="70"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="70">
+      <c r="AG42" s="71"/>
+      <c r="AH42" s="70">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="AM42" s="92"/>
-    </row>
-    <row r="43" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI42" s="92"/>
+    </row>
+    <row r="43" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <v>34</v>
       </c>
@@ -9229,23 +9034,19 @@
       <c r="AA43" s="70"/>
       <c r="AB43" s="70"/>
       <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
+      <c r="AD43" s="70">
+        <v>17</v>
+      </c>
       <c r="AE43" s="70"/>
-      <c r="AF43" s="70">
-        <v>17</v>
-      </c>
-      <c r="AG43" s="70"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="71"/>
-      <c r="AL43" s="70">
+      <c r="AF43" s="70"/>
+      <c r="AG43" s="71"/>
+      <c r="AH43" s="70">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="AM43" s="92"/>
-    </row>
-    <row r="44" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI43" s="92"/>
+    </row>
+    <row r="44" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>35</v>
       </c>
@@ -9295,35 +9096,31 @@
         <v>1</v>
       </c>
       <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70">
+      <c r="V44" s="70">
         <v>6</v>
       </c>
-      <c r="X44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70">
+        <v>42</v>
+      </c>
       <c r="Y44" s="70"/>
       <c r="Z44" s="70">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AA44" s="70"/>
-      <c r="AB44" s="70">
-        <v>5</v>
-      </c>
+      <c r="AB44" s="70"/>
       <c r="AC44" s="70"/>
       <c r="AD44" s="70"/>
       <c r="AE44" s="70"/>
       <c r="AF44" s="70"/>
-      <c r="AG44" s="70"/>
-      <c r="AH44" s="70"/>
-      <c r="AI44" s="70"/>
-      <c r="AJ44" s="70"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="70">
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="70">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="AM44" s="92"/>
-    </row>
-    <row r="45" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI44" s="92"/>
+    </row>
+    <row r="45" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>36</v>
       </c>
@@ -9370,32 +9167,28 @@
       <c r="T45" s="70"/>
       <c r="U45" s="70"/>
       <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70">
+      <c r="W45" s="70">
         <v>2</v>
       </c>
-      <c r="Y45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70">
+        <v>1</v>
+      </c>
       <c r="Z45" s="70"/>
-      <c r="AA45" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA45" s="70"/>
       <c r="AB45" s="70"/>
       <c r="AC45" s="70"/>
       <c r="AD45" s="70"/>
       <c r="AE45" s="70"/>
       <c r="AF45" s="70"/>
-      <c r="AG45" s="70"/>
-      <c r="AH45" s="70"/>
-      <c r="AI45" s="70"/>
-      <c r="AJ45" s="70"/>
-      <c r="AK45" s="71"/>
-      <c r="AL45" s="70">
+      <c r="AG45" s="71"/>
+      <c r="AH45" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AM45" s="92"/>
-    </row>
-    <row r="46" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI45" s="92"/>
+    </row>
+    <row r="46" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <v>37</v>
       </c>
@@ -9443,35 +9236,31 @@
       </c>
       <c r="T46" s="70"/>
       <c r="U46" s="70"/>
-      <c r="V46" s="70"/>
+      <c r="V46" s="70">
+        <v>5</v>
+      </c>
       <c r="W46" s="70">
         <v>5</v>
       </c>
-      <c r="X46" s="70">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70">
+        <v>1</v>
+      </c>
       <c r="Z46" s="70"/>
-      <c r="AA46" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA46" s="70"/>
       <c r="AB46" s="70"/>
       <c r="AC46" s="70"/>
       <c r="AD46" s="70"/>
       <c r="AE46" s="70"/>
       <c r="AF46" s="70"/>
-      <c r="AG46" s="70"/>
-      <c r="AH46" s="70"/>
-      <c r="AI46" s="70"/>
-      <c r="AJ46" s="70"/>
-      <c r="AK46" s="71"/>
-      <c r="AL46" s="70">
+      <c r="AG46" s="71"/>
+      <c r="AH46" s="70">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="AM46" s="92"/>
-    </row>
-    <row r="47" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI46" s="92"/>
+    </row>
+    <row r="47" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>38</v>
       </c>
@@ -9521,35 +9310,31 @@
         <v>1</v>
       </c>
       <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
+      <c r="V47" s="70">
+        <v>4</v>
+      </c>
       <c r="W47" s="70">
-        <v>4</v>
-      </c>
-      <c r="X47" s="70">
         <v>5</v>
       </c>
+      <c r="X47" s="70"/>
       <c r="Y47" s="70"/>
-      <c r="Z47" s="70"/>
+      <c r="Z47" s="70">
+        <v>5</v>
+      </c>
       <c r="AA47" s="70"/>
-      <c r="AB47" s="70">
-        <v>5</v>
-      </c>
+      <c r="AB47" s="70"/>
       <c r="AC47" s="70"/>
       <c r="AD47" s="70"/>
       <c r="AE47" s="70"/>
       <c r="AF47" s="70"/>
-      <c r="AG47" s="70"/>
-      <c r="AH47" s="70"/>
-      <c r="AI47" s="70"/>
-      <c r="AJ47" s="70"/>
-      <c r="AK47" s="71"/>
-      <c r="AL47" s="70">
+      <c r="AG47" s="71"/>
+      <c r="AH47" s="70">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="AM47" s="92"/>
-    </row>
-    <row r="48" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI47" s="92"/>
+    </row>
+    <row r="48" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <v>39</v>
       </c>
@@ -9596,32 +9381,28 @@
       <c r="T48" s="70"/>
       <c r="U48" s="70"/>
       <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70">
+      <c r="W48" s="70">
         <v>2</v>
       </c>
-      <c r="Y48" s="70"/>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="70">
+        <v>1</v>
+      </c>
       <c r="Z48" s="70"/>
-      <c r="AA48" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA48" s="70"/>
       <c r="AB48" s="70"/>
       <c r="AC48" s="70"/>
       <c r="AD48" s="70"/>
       <c r="AE48" s="70"/>
       <c r="AF48" s="70"/>
-      <c r="AG48" s="70"/>
-      <c r="AH48" s="70"/>
-      <c r="AI48" s="70"/>
-      <c r="AJ48" s="70"/>
-      <c r="AK48" s="71"/>
-      <c r="AL48" s="70">
+      <c r="AG48" s="71"/>
+      <c r="AH48" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AM48" s="92"/>
-    </row>
-    <row r="49" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI48" s="92"/>
+    </row>
+    <row r="49" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <v>40</v>
       </c>
@@ -9671,31 +9452,27 @@
       <c r="U49" s="70"/>
       <c r="V49" s="70"/>
       <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
+      <c r="X49" s="70">
+        <v>14</v>
+      </c>
       <c r="Y49" s="70"/>
       <c r="Z49" s="70">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AA49" s="70"/>
-      <c r="AB49" s="70">
-        <v>3</v>
-      </c>
+      <c r="AB49" s="70"/>
       <c r="AC49" s="70"/>
       <c r="AD49" s="70"/>
       <c r="AE49" s="70"/>
       <c r="AF49" s="70"/>
-      <c r="AG49" s="70"/>
-      <c r="AH49" s="70"/>
-      <c r="AI49" s="70"/>
-      <c r="AJ49" s="70"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="70">
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="70">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AM49" s="92"/>
-    </row>
-    <row r="50" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI49" s="92"/>
+    </row>
+    <row r="50" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <v>41</v>
       </c>
@@ -9745,31 +9522,27 @@
       <c r="U50" s="70"/>
       <c r="V50" s="70"/>
       <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
+      <c r="X50" s="70">
+        <v>14</v>
+      </c>
       <c r="Y50" s="70"/>
       <c r="Z50" s="70">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AA50" s="70"/>
-      <c r="AB50" s="70">
-        <v>3</v>
-      </c>
+      <c r="AB50" s="70"/>
       <c r="AC50" s="70"/>
       <c r="AD50" s="70"/>
       <c r="AE50" s="70"/>
       <c r="AF50" s="70"/>
-      <c r="AG50" s="70"/>
-      <c r="AH50" s="70"/>
-      <c r="AI50" s="70"/>
-      <c r="AJ50" s="70"/>
-      <c r="AK50" s="71"/>
-      <c r="AL50" s="70">
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="70">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AM50" s="92"/>
-    </row>
-    <row r="51" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI50" s="92"/>
+    </row>
+    <row r="51" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <v>42</v>
       </c>
@@ -9816,32 +9589,28 @@
       <c r="T51" s="70"/>
       <c r="U51" s="70"/>
       <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70">
+      <c r="W51" s="70">
         <v>2</v>
       </c>
-      <c r="Y51" s="70"/>
+      <c r="X51" s="70"/>
+      <c r="Y51" s="70">
+        <v>1</v>
+      </c>
       <c r="Z51" s="70"/>
-      <c r="AA51" s="70">
-        <v>1</v>
-      </c>
+      <c r="AA51" s="70"/>
       <c r="AB51" s="70"/>
       <c r="AC51" s="70"/>
       <c r="AD51" s="70"/>
       <c r="AE51" s="70"/>
       <c r="AF51" s="70"/>
-      <c r="AG51" s="70"/>
-      <c r="AH51" s="70"/>
-      <c r="AI51" s="70"/>
-      <c r="AJ51" s="70"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="70">
+      <c r="AG51" s="71"/>
+      <c r="AH51" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AM51" s="92"/>
-    </row>
-    <row r="52" spans="1:39" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AI51" s="92"/>
+    </row>
+    <row r="52" spans="1:35" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="50">
         <v>43</v>
       </c>
@@ -9890,32 +9659,28 @@
       </c>
       <c r="U52" s="70"/>
       <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70">
+      <c r="W52" s="70">
         <v>2</v>
       </c>
+      <c r="X52" s="70"/>
       <c r="Y52" s="70"/>
-      <c r="Z52" s="70"/>
+      <c r="Z52" s="70">
+        <v>3</v>
+      </c>
       <c r="AA52" s="70"/>
-      <c r="AB52" s="70">
-        <v>3</v>
-      </c>
+      <c r="AB52" s="70"/>
       <c r="AC52" s="70"/>
       <c r="AD52" s="70"/>
       <c r="AE52" s="70"/>
       <c r="AF52" s="70"/>
-      <c r="AG52" s="70"/>
-      <c r="AH52" s="70"/>
-      <c r="AI52" s="70"/>
-      <c r="AJ52" s="70"/>
-      <c r="AK52" s="71"/>
-      <c r="AL52" s="70">
+      <c r="AG52" s="71"/>
+      <c r="AH52" s="70">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AM52" s="92"/>
-    </row>
-    <row r="53" spans="1:39" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI52" s="92"/>
+    </row>
+    <row r="53" spans="1:35" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50"/>
       <c r="B53" s="51"/>
       <c r="C53" s="83" t="s">
@@ -9937,7 +9702,7 @@
       <c r="Q53" s="85"/>
       <c r="R53" s="88"/>
       <c r="S53" s="89">
-        <f t="shared" ref="S53:AL53" si="3">SUM(S37:S52)</f>
+        <f t="shared" ref="S53:AH53" si="3">SUM(S37:S52)</f>
         <v>44</v>
       </c>
       <c r="T53" s="89">
@@ -9950,31 +9715,31 @@
       </c>
       <c r="V53" s="89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W53" s="89">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="X53" s="89">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y53" s="89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z53" s="89">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AA53" s="89">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="89">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="89">
         <f t="shared" si="3"/>
@@ -9982,7 +9747,7 @@
       </c>
       <c r="AD53" s="89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE53" s="89">
         <f t="shared" si="3"/>
@@ -9990,7 +9755,7 @@
       </c>
       <c r="AF53" s="89">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="89">
         <f t="shared" si="3"/>
@@ -9998,27 +9763,11 @@
       </c>
       <c r="AH53" s="89">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI53" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL53" s="89">
-        <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="AM53" s="61"/>
-    </row>
-    <row r="54" spans="1:39" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI53" s="61"/>
+    </row>
+    <row r="54" spans="1:35" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="99"/>
       <c r="B54" s="100"/>
       <c r="C54" s="101"/>
@@ -10040,7 +9789,7 @@
       <c r="Q54" s="104"/>
       <c r="R54" s="104"/>
       <c r="S54" s="105">
-        <f t="shared" ref="S54:AL54" si="4">SUM(S35,S53)</f>
+        <f t="shared" ref="S54:AH54" si="4">SUM(S35,S53)</f>
         <v>701</v>
       </c>
       <c r="T54" s="105">
@@ -10049,43 +9798,43 @@
       </c>
       <c r="U54" s="105">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V54" s="105">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>630</v>
       </c>
       <c r="W54" s="105">
         <f t="shared" si="4"/>
-        <v>630</v>
+        <v>36</v>
       </c>
       <c r="X54" s="105">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="Y54" s="105">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z54" s="105">
         <f t="shared" si="4"/>
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="AA54" s="105">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB54" s="105">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="AC54" s="105">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="105">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="AE54" s="105">
         <f t="shared" si="4"/>
@@ -10093,7 +9842,7 @@
       </c>
       <c r="AF54" s="105">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="AG54" s="105">
         <f t="shared" si="4"/>
@@ -10101,57 +9850,41 @@
       </c>
       <c r="AH54" s="105">
         <f t="shared" si="4"/>
+        <v>1936</v>
+      </c>
+      <c r="AI54" s="106">
+        <f>SUBTOTAL(9,AI35:AI53)</f>
         <v>0</v>
       </c>
-      <c r="AI54" s="105">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="105">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="AK54" s="105">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL54" s="105">
-        <f t="shared" si="4"/>
-        <v>1936</v>
-      </c>
-      <c r="AM54" s="106">
-        <f>SUBTOTAL(9,AM35:AM53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S55" s="62"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S56" s="62"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S57" s="62"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S58" s="62"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S59" s="62"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S60" s="62"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S61" s="62"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S62" s="62"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S63" s="62"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S64" s="62"/>
     </row>
     <row r="65" spans="19:19" x14ac:dyDescent="0.25">
@@ -10511,11 +10244,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
-    <mergeCell ref="AC1:AL3"/>
+    <mergeCell ref="AA1:AH3"/>
     <mergeCell ref="A3:E4"/>
-    <mergeCell ref="H3:AB3"/>
+    <mergeCell ref="H3:Z3"/>
   </mergeCells>
-  <conditionalFormatting sqref="S39:AL54 S38:V38 X38:AL38 S37:AL37 S7:AL35">
+  <conditionalFormatting sqref="S38:U38 W38:AH38 S39:AH54 S37:AH37 S7:AH35">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -10537,7 +10270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист151113"/>
   <dimension ref="A1:IV181"/>
   <sheetViews>
@@ -14026,71 +13759,71 @@
         <v>29</v>
       </c>
       <c r="V47" s="162">
-        <f>SUM(V24,Осінь!V35)</f>
+        <f>SUM(V24,Осінь!U35)</f>
         <v>36</v>
       </c>
       <c r="W47" s="162">
-        <f>SUM(W24,Осінь!W35)</f>
+        <f>SUM(W24,Осінь!V35)</f>
         <v>1170</v>
       </c>
       <c r="X47" s="162">
-        <f>SUM(X24,Осінь!X35)</f>
+        <f>SUM(X24,Осінь!W35)</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="162">
-        <f>SUM(Y24,Осінь!Y35)</f>
+      <c r="Y47" s="162" t="e">
+        <f>SUM(Y24,Осінь!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z47" s="162">
+        <f>SUM(Z24,Осінь!X35)</f>
+        <v>260</v>
+      </c>
+      <c r="AA47" s="162">
+        <f>SUM(AA24,Осінь!Y35)</f>
+        <v>58</v>
+      </c>
+      <c r="AB47" s="162">
+        <f>SUM(AB24,Осінь!Z35)</f>
+        <v>59</v>
+      </c>
+      <c r="AC47" s="162">
+        <f>SUM(AC24,Осінь!AA35)</f>
+        <v>173</v>
+      </c>
+      <c r="AD47" s="162">
+        <f>SUM(AD24,Осінь!AB35)</f>
+        <v>21</v>
+      </c>
+      <c r="AE47" s="162">
+        <f>SUM(AE24,Осінь!AC35)</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="162">
-        <f>SUM(Z24,Осінь!Z35)</f>
-        <v>260</v>
-      </c>
-      <c r="AA47" s="162">
-        <f>SUM(AA24,Осінь!AA35)</f>
-        <v>58</v>
-      </c>
-      <c r="AB47" s="162">
-        <f>SUM(AB24,Осінь!AB35)</f>
-        <v>59</v>
-      </c>
-      <c r="AC47" s="162">
-        <f>SUM(AC24,Осінь!AC35)</f>
-        <v>173</v>
-      </c>
-      <c r="AD47" s="162">
-        <f>SUM(AD24,Осінь!AD35)</f>
-        <v>21</v>
-      </c>
-      <c r="AE47" s="162">
-        <f>SUM(AE24,Осінь!AE35)</f>
+      <c r="AF47" s="162">
+        <f>SUM(AF24,Осінь!AD35)</f>
+        <v>229</v>
+      </c>
+      <c r="AG47" s="162" t="e">
+        <f>SUM(AG24,Осінь!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH47" s="162" t="e">
+        <f>SUM(AH24,Осінь!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI47" s="162">
+        <f>SUM(AI24,Осінь!AE35)</f>
+        <v>30</v>
+      </c>
+      <c r="AJ47" s="162">
+        <f>SUM(AJ24,Осінь!AF35)</f>
+        <v>28</v>
+      </c>
+      <c r="AK47" s="162">
+        <f>SUM(AK24,Осінь!AG35)</f>
         <v>0</v>
       </c>
-      <c r="AF47" s="162">
-        <f>SUM(AF24,Осінь!AF35)</f>
-        <v>229</v>
-      </c>
-      <c r="AG47" s="162">
-        <f>SUM(AG24,Осінь!AG35)</f>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="162">
-        <f>SUM(AH24,Осінь!AH35)</f>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="162">
-        <f>SUM(AI24,Осінь!AI35)</f>
-        <v>30</v>
-      </c>
-      <c r="AJ47" s="162">
-        <f>SUM(AJ24,Осінь!AJ35)</f>
-        <v>28</v>
-      </c>
-      <c r="AK47" s="162">
-        <f>SUM(AK24,Осінь!AK35)</f>
-        <v>0</v>
-      </c>
       <c r="AL47" s="244">
-        <f>SUM(AL24,Осінь!AL35)</f>
+        <f>SUM(AL24,Осінь!AH35)</f>
         <v>3213</v>
       </c>
       <c r="AM47" s="242"/>
@@ -14117,71 +13850,71 @@
         <v>13</v>
       </c>
       <c r="V48" s="164">
-        <f>SUM(V43,Осінь!V53)</f>
+        <f>SUM(V43,Осінь!U53)</f>
         <v>0</v>
       </c>
       <c r="W48" s="164">
-        <f>SUM(W43,Осінь!W53)</f>
+        <f>SUM(W43,Осінь!V53)</f>
         <v>60</v>
       </c>
       <c r="X48" s="164">
-        <f>SUM(X43,Осінь!X53)</f>
+        <f>SUM(X43,Осінь!W53)</f>
         <v>54</v>
       </c>
-      <c r="Y48" s="164">
-        <f>SUM(Y43,Осінь!Y53)</f>
+      <c r="Y48" s="164" t="e">
+        <f>SUM(Y43,Осінь!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z48" s="164">
+        <f>SUM(Z43,Осінь!X53)</f>
+        <v>108</v>
+      </c>
+      <c r="AA48" s="164">
+        <f>SUM(AA43,Осінь!Y53)</f>
+        <v>17</v>
+      </c>
+      <c r="AB48" s="164">
+        <f>SUM(AB43,Осінь!Z53)</f>
+        <v>40</v>
+      </c>
+      <c r="AC48" s="164">
+        <f>SUM(AC43,Осінь!AA53)</f>
+        <v>211</v>
+      </c>
+      <c r="AD48" s="164">
+        <f>SUM(AD43,Осінь!AB53)</f>
+        <v>14</v>
+      </c>
+      <c r="AE48" s="164">
+        <f>SUM(AE43,Осінь!AC53)</f>
         <v>0</v>
       </c>
-      <c r="Z48" s="164">
-        <f>SUM(Z43,Осінь!Z53)</f>
-        <v>108</v>
-      </c>
-      <c r="AA48" s="164">
-        <f>SUM(AA43,Осінь!AA53)</f>
-        <v>17</v>
-      </c>
-      <c r="AB48" s="164">
-        <f>SUM(AB43,Осінь!AB53)</f>
-        <v>40</v>
-      </c>
-      <c r="AC48" s="164">
-        <f>SUM(AC43,Осінь!AC53)</f>
-        <v>211</v>
-      </c>
-      <c r="AD48" s="164">
-        <f>SUM(AD43,Осінь!AD53)</f>
+      <c r="AF48" s="164">
+        <f>SUM(AF43,Осінь!AD53)</f>
+        <v>61</v>
+      </c>
+      <c r="AG48" s="164" t="e">
+        <f>SUM(AG43,Осінь!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH48" s="164" t="e">
+        <f>SUM(AH43,Осінь!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI48" s="164">
+        <f>SUM(AI43,Осінь!AE53)</f>
         <v>14</v>
       </c>
-      <c r="AE48" s="164">
-        <f>SUM(AE43,Осінь!AE53)</f>
+      <c r="AJ48" s="164">
+        <f>SUM(AJ43,Осінь!AF53)</f>
+        <v>8</v>
+      </c>
+      <c r="AK48" s="241">
+        <f>SUM(AK43,Осінь!AG53)</f>
         <v>0</v>
       </c>
-      <c r="AF48" s="164">
-        <f>SUM(AF43,Осінь!AF53)</f>
-        <v>61</v>
-      </c>
-      <c r="AG48" s="164">
-        <f>SUM(AG43,Осінь!AG53)</f>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="164">
-        <f>SUM(AH43,Осінь!AH53)</f>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="164">
-        <f>SUM(AI43,Осінь!AI53)</f>
-        <v>14</v>
-      </c>
-      <c r="AJ48" s="164">
-        <f>SUM(AJ43,Осінь!AJ53)</f>
-        <v>8</v>
-      </c>
-      <c r="AK48" s="241">
-        <f>SUM(AK43,Осінь!AK53)</f>
-        <v>0</v>
-      </c>
       <c r="AL48" s="244">
-        <f>SUM(AL43,Осінь!AL53)</f>
+        <f>SUM(AL43,Осінь!AH53)</f>
         <v>681</v>
       </c>
       <c r="AM48" s="243"/>
@@ -14208,71 +13941,71 @@
         <v>42</v>
       </c>
       <c r="V49" s="162">
-        <f>SUM(Осінь!V54,V45)</f>
+        <f>SUM(Осінь!U54,V45)</f>
         <v>36</v>
       </c>
       <c r="W49" s="162">
-        <f>SUM(Осінь!W54,W45)</f>
+        <f>SUM(Осінь!V54,W45)</f>
         <v>1230</v>
       </c>
       <c r="X49" s="162">
-        <f>SUM(Осінь!X54,X45)</f>
+        <f>SUM(Осінь!W54,X45)</f>
         <v>54</v>
       </c>
-      <c r="Y49" s="162">
-        <f>SUM(Осінь!Y54,Y45)</f>
+      <c r="Y49" s="162" t="e">
+        <f>SUM(Осінь!#REF!,Y45)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z49" s="162">
+        <f>SUM(Осінь!X54,Z45)</f>
+        <v>368</v>
+      </c>
+      <c r="AA49" s="162">
+        <f>SUM(Осінь!Y54,AA45)</f>
+        <v>75</v>
+      </c>
+      <c r="AB49" s="162">
+        <f>SUM(Осінь!Z54,AB45)</f>
+        <v>99</v>
+      </c>
+      <c r="AC49" s="162">
+        <f>SUM(Осінь!AA54,AC45)</f>
+        <v>384</v>
+      </c>
+      <c r="AD49" s="162">
+        <f>SUM(Осінь!AB54,AD45)</f>
+        <v>35</v>
+      </c>
+      <c r="AE49" s="162">
+        <f>SUM(Осінь!AC54,AE45)</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="162">
-        <f>SUM(Осінь!Z54,Z45)</f>
-        <v>368</v>
-      </c>
-      <c r="AA49" s="162">
-        <f>SUM(Осінь!AA54,AA45)</f>
-        <v>75</v>
-      </c>
-      <c r="AB49" s="162">
-        <f>SUM(Осінь!AB54,AB45)</f>
-        <v>99</v>
-      </c>
-      <c r="AC49" s="162">
-        <f>SUM(Осінь!AC54,AC45)</f>
-        <v>384</v>
-      </c>
-      <c r="AD49" s="162">
-        <f>SUM(Осінь!AD54,AD45)</f>
-        <v>35</v>
-      </c>
-      <c r="AE49" s="162">
-        <f>SUM(Осінь!AE54,AE45)</f>
+      <c r="AF49" s="162">
+        <f>SUM(Осінь!AD54,AF45)</f>
+        <v>290</v>
+      </c>
+      <c r="AG49" s="162" t="e">
+        <f>SUM(Осінь!#REF!,AG45)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH49" s="162" t="e">
+        <f>SUM(Осінь!#REF!,AH45)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI49" s="162">
+        <f>SUM(Осінь!AE54,AI45)</f>
+        <v>44</v>
+      </c>
+      <c r="AJ49" s="162">
+        <f>SUM(Осінь!AF54,AJ45)</f>
+        <v>36</v>
+      </c>
+      <c r="AK49" s="162">
+        <f>SUM(Осінь!AG54,AK45)</f>
         <v>0</v>
       </c>
-      <c r="AF49" s="162">
-        <f>SUM(Осінь!AF54,AF45)</f>
-        <v>290</v>
-      </c>
-      <c r="AG49" s="162">
-        <f>SUM(Осінь!AG54,AG45)</f>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="162">
-        <f>SUM(Осінь!AH54,AH45)</f>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="162">
-        <f>SUM(Осінь!AI54,AI45)</f>
-        <v>44</v>
-      </c>
-      <c r="AJ49" s="162">
-        <f>SUM(Осінь!AJ54,AJ45)</f>
-        <v>36</v>
-      </c>
-      <c r="AK49" s="162">
-        <f>SUM(Осінь!AK54,AK45)</f>
-        <v>0</v>
-      </c>
       <c r="AL49" s="244">
-        <f>SUM(Осінь!AL54,AL45)</f>
+        <f>SUM(Осінь!AH54,AL45)</f>
         <v>3894</v>
       </c>
       <c r="AM49" s="242"/>
@@ -14743,7 +14476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист151114">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16451,7 +16184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -17197,7 +16930,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Попередження" prompt="Введіть назву дисципліни" sqref="A2:B4">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Попередження" prompt="Введіть назву дисципліни" sqref="A2:B4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>1</formula1>
       <formula2>40</formula2>
     </dataValidation>
@@ -17209,7 +16942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A2:Q4"/>
   <sheetViews>
@@ -17371,7 +17104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -17807,7 +17540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
